--- a/HypothesisTesting.xlsx
+++ b/HypothesisTesting.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="9330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="9330"/>
   </bookViews>
   <sheets>
-    <sheet name="理论篇" sheetId="3" r:id="rId1"/>
-    <sheet name="常见场景" sheetId="1" r:id="rId2"/>
-    <sheet name="ANOVA2" sheetId="2" r:id="rId3"/>
+    <sheet name="常见场景" sheetId="1" r:id="rId1"/>
+    <sheet name="ANOVA2" sheetId="2" r:id="rId2"/>
+    <sheet name="理论篇" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
   <si>
     <t>检验对象</t>
   </si>
@@ -271,21 +271,6 @@
   </si>
   <si>
     <t>signrank(x)</t>
-  </si>
-  <si>
-    <t>检验正态分布：</t>
-  </si>
-  <si>
-    <t>n&lt;2000</t>
-  </si>
-  <si>
-    <t>sharpiro-wilk</t>
-  </si>
-  <si>
-    <t>n&gt;2000</t>
-  </si>
-  <si>
-    <t>kstest</t>
   </si>
   <si>
     <t>相关系数</t>
@@ -373,6 +358,11 @@
   </si>
   <si>
     <t>第二类错误</t>
+  </si>
+  <si>
+    <t>样本量n&lt;2000，用sharpiro-wilk
+n&gt;2000，用kstest</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -486,7 +476,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,12 +486,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,7 +559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -627,13 +611,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -660,6 +647,15 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -673,15 +669,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -703,70 +690,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3073" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3073"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -805,21 +728,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -864,21 +772,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -923,21 +816,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -982,21 +860,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1041,21 +904,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1100,21 +948,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1159,21 +992,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1218,21 +1036,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1277,21 +1080,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1336,21 +1124,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1395,21 +1168,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1454,21 +1212,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1513,21 +1256,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1572,21 +1300,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1631,21 +1344,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1690,21 +1388,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1749,21 +1432,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1808,21 +1476,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1867,21 +1520,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1926,21 +1564,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1985,21 +1608,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2044,21 +1652,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2103,21 +1696,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2162,21 +1740,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2221,21 +1784,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2298,7 +1846,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2335,9 +1883,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -2345,16 +1890,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -2399,9 +1934,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -2409,16 +1941,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -2463,9 +1985,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -2473,16 +1992,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -2527,9 +2036,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -2537,16 +2043,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -2591,9 +2087,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -2601,16 +2094,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -2655,9 +2138,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -2665,16 +2145,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -2719,9 +2189,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -2729,16 +2196,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -2783,9 +2240,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -2793,16 +2247,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -2847,9 +2291,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -2857,16 +2298,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -2913,21 +2344,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2972,21 +2388,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3031,21 +2432,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3456,6 +2842,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>504825</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -3714,66 +3149,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="3073" r:id="rId3">
-          <objectPr defaultSize="0" altText="" r:id="rId4">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>523875</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="3073" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11:E13"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3816,150 +3196,150 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="26" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="27"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="24" t="s">
         <v>25</v>
       </c>
       <c r="I11" t="s">
@@ -3967,16 +3347,16 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
       <c r="I12" t="s">
         <v>28</v>
       </c>
@@ -3994,16 +3374,16 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" t="s">
         <v>33</v>
       </c>
@@ -4015,57 +3395,57 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="33"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="27"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:13" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33" t="s">
+      <c r="E17" s="29"/>
+      <c r="F17" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="24" t="s">
         <v>42</v>
       </c>
       <c r="H17" s="9" t="s">
@@ -4073,24 +3453,24 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="19" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="12" t="s">
         <v>45</v>
       </c>
@@ -4099,7 +3479,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="7" t="s">
         <v>47</v>
       </c>
@@ -4117,95 +3497,95 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="27" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="14"/>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="23"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="28"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="24"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="25"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="26" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="27" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23" t="s">
+      <c r="E24" s="24"/>
+      <c r="F24" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="27"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="32"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="27"/>
+      <c r="H26" s="28"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="32"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
     </row>
     <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="9" t="s">
         <v>59</v>
       </c>
@@ -4219,7 +3599,7 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="15"/>
@@ -4229,10 +3609,10 @@
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="29" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -4251,8 +3631,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="9" t="s">
         <v>63</v>
       </c>
@@ -4269,8 +3649,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="9"/>
       <c r="D32" s="16" t="s">
         <v>70</v>
@@ -4285,8 +3665,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="9"/>
       <c r="D33" s="15" t="s">
         <v>73</v>
@@ -4294,10 +3674,12 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="9"/>
+      <c r="H33" s="9" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="7" t="s">
         <v>74</v>
       </c>
@@ -4310,124 +3692,114 @@
       <c r="G34" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="35" t="s">
         <v>76</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="H35" s="27"/>
+      <c r="H35" s="28"/>
     </row>
     <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="31"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
     </row>
     <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="35" t="s">
         <v>78</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="H37" s="27"/>
+      <c r="H37" s="28"/>
     </row>
     <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="27"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="31"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
     </row>
     <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="35" t="s">
         <v>80</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="H39" s="27"/>
+      <c r="H39" s="28"/>
     </row>
     <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="27"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="31"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D42" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17" t="s">
-        <v>84</v>
-      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D43" s="17"/>
-      <c r="E43" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17" t="s">
-        <v>86</v>
-      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
     </row>
     <row r="46" spans="1:8" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>90</v>
+        <v>84</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="64">
+  <mergeCells count="65">
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="G37:G38"/>
@@ -4492,6 +3864,7 @@
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
@@ -5156,7 +4529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -5174,62 +4547,62 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="30.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5540,4 +4913,64 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="3073" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>504825</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="3073" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
 </file>
--- a/HypothesisTesting.xlsx
+++ b/HypothesisTesting.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="9330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="常见场景" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
   <si>
     <t>检验对象</t>
   </si>
@@ -364,12 +364,16 @@
 n&gt;2000，用kstest</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>回到郭飞的博客</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +479,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -559,7 +570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -621,6 +632,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3149,11 +3163,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3196,150 +3210,150 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="28"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="25" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="25" t="s">
         <v>25</v>
       </c>
       <c r="I11" t="s">
@@ -3347,16 +3361,16 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
       <c r="I12" t="s">
         <v>28</v>
       </c>
@@ -3374,16 +3388,16 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
       <c r="I13" t="s">
         <v>33</v>
       </c>
@@ -3395,57 +3409,57 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="28" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="28"/>
+      <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="30"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:13" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="31"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29" t="s">
+      <c r="E17" s="30"/>
+      <c r="F17" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="25" t="s">
         <v>42</v>
       </c>
       <c r="H17" s="9" t="s">
@@ -3453,24 +3467,24 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="26"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="12" t="s">
         <v>45</v>
       </c>
@@ -3479,7 +3493,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="7" t="s">
         <v>47</v>
       </c>
@@ -3497,95 +3511,95 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="28" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="14"/>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="24"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="28"/>
+      <c r="H21" s="29"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="25"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="26"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="28" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24" t="s">
+      <c r="E24" s="25"/>
+      <c r="F24" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="28"/>
+      <c r="H24" s="29"/>
     </row>
     <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="36"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="28"/>
+      <c r="H26" s="29"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="36"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="9" t="s">
         <v>59</v>
       </c>
@@ -3599,7 +3613,7 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="15"/>
@@ -3609,10 +3623,10 @@
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="30" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -3631,8 +3645,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="9" t="s">
         <v>63</v>
       </c>
@@ -3649,8 +3663,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="9"/>
       <c r="D32" s="16" t="s">
         <v>70</v>
@@ -3665,8 +3679,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="9"/>
       <c r="D33" s="15" t="s">
         <v>73</v>
@@ -3679,7 +3693,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="7" t="s">
         <v>74</v>
       </c>
@@ -3695,76 +3709,76 @@
       <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="36" t="s">
         <v>76</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="27" t="s">
+      <c r="G35" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="H35" s="28"/>
+      <c r="H35" s="29"/>
     </row>
     <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="28"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="35"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="29"/>
     </row>
     <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="36" t="s">
         <v>78</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="27" t="s">
+      <c r="G37" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="H37" s="28"/>
+      <c r="H37" s="29"/>
     </row>
     <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="35"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="29"/>
     </row>
     <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="28"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="36" t="s">
         <v>80</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="27" t="s">
+      <c r="G39" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="H39" s="28"/>
+      <c r="H39" s="29"/>
     </row>
     <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="35"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="29"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D42" s="20"/>
@@ -3795,6 +3809,11 @@
     <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D52" s="21" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3869,16 +3888,17 @@
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F20" location="ANOVA2!A1" display="ANOVA2!A1"/>
+    <hyperlink ref="D52" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId3">
-          <objectPr defaultSize="0" altText="" r:id="rId4">
+        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" altText="" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -3897,13 +3917,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId3"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1026" r:id="rId5">
-          <objectPr defaultSize="0" altText="" r:id="rId6">
+        <oleObject progId="Equation.KSEE3" shapeId="1026" r:id="rId6">
+          <objectPr defaultSize="0" altText="" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -3922,13 +3942,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1026" r:id="rId5"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1026" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId7">
-          <objectPr defaultSize="0" altText="" r:id="rId8">
+        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId8">
+          <objectPr defaultSize="0" altText="" r:id="rId9">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -3947,13 +3967,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId7"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId9">
-          <objectPr defaultSize="0" altText="" r:id="rId10">
+        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId10">
+          <objectPr defaultSize="0" altText="" r:id="rId11">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -3972,13 +3992,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId9"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId11">
-          <objectPr defaultSize="0" altText="" r:id="rId12">
+        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId12">
+          <objectPr defaultSize="0" altText="" r:id="rId13">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -3997,13 +4017,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId11"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1030" r:id="rId13">
-          <objectPr defaultSize="0" altText="" r:id="rId14">
+        <oleObject progId="Equation.KSEE3" shapeId="1030" r:id="rId14">
+          <objectPr defaultSize="0" altText="" r:id="rId15">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4022,13 +4042,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1030" r:id="rId13"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1030" r:id="rId14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId15">
-          <objectPr defaultSize="0" altText="" r:id="rId16">
+        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId16">
+          <objectPr defaultSize="0" altText="" r:id="rId17">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4047,13 +4067,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId15"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId17">
-          <objectPr defaultSize="0" altText="" r:id="rId18">
+        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId18">
+          <objectPr defaultSize="0" altText="" r:id="rId19">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4072,13 +4092,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId17"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId19">
-          <objectPr defaultSize="0" altText="" r:id="rId20">
+        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId20">
+          <objectPr defaultSize="0" altText="" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4097,13 +4117,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId19"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId21">
-          <objectPr defaultSize="0" altText="" r:id="rId22">
+        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId22">
+          <objectPr defaultSize="0" altText="" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4122,13 +4142,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId21"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId23">
-          <objectPr defaultSize="0" altText="" r:id="rId24">
+        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId24">
+          <objectPr defaultSize="0" altText="" r:id="rId25">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4147,13 +4167,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId23"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId25">
-          <objectPr defaultSize="0" altText="" r:id="rId26">
+        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId26">
+          <objectPr defaultSize="0" altText="" r:id="rId27">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4172,13 +4192,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId25"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId27">
-          <objectPr defaultSize="0" altText="" r:id="rId28">
+        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId28">
+          <objectPr defaultSize="0" altText="" r:id="rId29">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4197,13 +4217,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId27"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1038" r:id="rId29">
-          <objectPr defaultSize="0" altText="" r:id="rId30">
+        <oleObject progId="Equation.KSEE3" shapeId="1038" r:id="rId30">
+          <objectPr defaultSize="0" altText="" r:id="rId31">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4222,13 +4242,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1038" r:id="rId29"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1038" r:id="rId30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1040" r:id="rId31">
-          <objectPr defaultSize="0" altText="" r:id="rId32">
+        <oleObject progId="Equation.KSEE3" shapeId="1040" r:id="rId32">
+          <objectPr defaultSize="0" altText="" r:id="rId33">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4247,13 +4267,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1040" r:id="rId31"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1040" r:id="rId32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId33">
-          <objectPr defaultSize="0" altText="" r:id="rId34">
+        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId34">
+          <objectPr defaultSize="0" altText="" r:id="rId35">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4272,13 +4292,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId33"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId35">
-          <objectPr defaultSize="0" altText="" r:id="rId18">
+        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId36">
+          <objectPr defaultSize="0" altText="" r:id="rId19">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4297,13 +4317,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId35"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId36">
-          <objectPr defaultSize="0" altText="" r:id="rId20">
+        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId37">
+          <objectPr defaultSize="0" altText="" r:id="rId21">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4322,13 +4342,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId36"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1044" r:id="rId37">
-          <objectPr defaultSize="0" altText="" r:id="rId22">
+        <oleObject progId="Equation.KSEE3" shapeId="1044" r:id="rId38">
+          <objectPr defaultSize="0" altText="" r:id="rId23">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4347,13 +4367,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1044" r:id="rId37"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1044" r:id="rId38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1046" r:id="rId38">
-          <objectPr defaultSize="0" altText="" r:id="rId39">
+        <oleObject progId="Equation.KSEE3" shapeId="1046" r:id="rId39">
+          <objectPr defaultSize="0" altText="" r:id="rId40">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4372,13 +4392,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1046" r:id="rId38"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1046" r:id="rId39"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1047" r:id="rId40">
-          <objectPr defaultSize="0" altText="" r:id="rId41">
+        <oleObject progId="Equation.KSEE3" shapeId="1047" r:id="rId41">
+          <objectPr defaultSize="0" altText="" r:id="rId42">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4397,13 +4417,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1047" r:id="rId40"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1047" r:id="rId41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1048" r:id="rId42">
-          <objectPr defaultSize="0" altText="" r:id="rId43">
+        <oleObject progId="Equation.KSEE3" shapeId="1048" r:id="rId43">
+          <objectPr defaultSize="0" altText="" r:id="rId44">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4422,13 +4442,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1048" r:id="rId42"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1048" r:id="rId43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1049" r:id="rId44">
-          <objectPr defaultSize="0" altText="" r:id="rId45">
+        <oleObject progId="Equation.KSEE3" shapeId="1049" r:id="rId45">
+          <objectPr defaultSize="0" altText="" r:id="rId46">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4447,13 +4467,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1049" r:id="rId44"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1049" r:id="rId45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1050" r:id="rId46">
-          <objectPr defaultSize="0" altText="" r:id="rId47">
+        <oleObject progId="Equation.KSEE3" shapeId="1050" r:id="rId47">
+          <objectPr defaultSize="0" altText="" r:id="rId48">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4472,13 +4492,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1050" r:id="rId46"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1050" r:id="rId47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1052" r:id="rId48">
-          <objectPr defaultSize="0" altText="" r:id="rId49">
+        <oleObject progId="Equation.KSEE3" shapeId="1052" r:id="rId49">
+          <objectPr defaultSize="0" altText="" r:id="rId50">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4497,13 +4517,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1052" r:id="rId48"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1052" r:id="rId49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1053" r:id="rId50">
-          <objectPr defaultSize="0" r:id="rId51">
+        <oleObject progId="Equation.KSEE3" shapeId="1053" r:id="rId51">
+          <objectPr defaultSize="0" r:id="rId52">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4522,7 +4542,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1053" r:id="rId50"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1053" r:id="rId51"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -4531,10 +4551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4605,16 +4625,24 @@
         <v>102</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId3">
-          <objectPr defaultSize="0" altText="" r:id="rId4">
+        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId4">
+          <objectPr defaultSize="0" altText="" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -4633,13 +4661,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId3"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId5">
-          <objectPr defaultSize="0" altText="" r:id="rId6">
+        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId6">
+          <objectPr defaultSize="0" altText="" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -4658,13 +4686,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId5"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId7">
-          <objectPr defaultSize="0" altText="" r:id="rId8">
+        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId8">
+          <objectPr defaultSize="0" altText="" r:id="rId9">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -4683,13 +4711,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId7"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId9">
-          <objectPr defaultSize="0" altText="" r:id="rId10">
+        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId10">
+          <objectPr defaultSize="0" altText="" r:id="rId11">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -4708,13 +4736,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId9"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId11">
-          <objectPr defaultSize="0" altText="" r:id="rId12">
+        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId12">
+          <objectPr defaultSize="0" altText="" r:id="rId13">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -4733,13 +4761,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId11"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId13">
-          <objectPr defaultSize="0" altText="" r:id="rId14">
+        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId14">
+          <objectPr defaultSize="0" altText="" r:id="rId15">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4758,13 +4786,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId13"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId15">
-          <objectPr defaultSize="0" altText="" r:id="rId16">
+        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId16">
+          <objectPr defaultSize="0" altText="" r:id="rId17">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4783,13 +4811,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId15"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId17">
-          <objectPr defaultSize="0" altText="" r:id="rId18">
+        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId18">
+          <objectPr defaultSize="0" altText="" r:id="rId19">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4808,13 +4836,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId17"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId19">
-          <objectPr defaultSize="0" altText="" r:id="rId20">
+        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId20">
+          <objectPr defaultSize="0" altText="" r:id="rId21">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4833,13 +4861,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId19"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId21">
-          <objectPr defaultSize="0" altText="" r:id="rId22">
+        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId22">
+          <objectPr defaultSize="0" altText="" r:id="rId23">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4858,13 +4886,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId21"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2060" r:id="rId23">
-          <objectPr defaultSize="0" altText="" r:id="rId24">
+        <oleObject progId="Equation.KSEE3" shapeId="2060" r:id="rId24">
+          <objectPr defaultSize="0" altText="" r:id="rId25">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4883,13 +4911,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2060" r:id="rId23"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2060" r:id="rId24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2061" r:id="rId25">
-          <objectPr defaultSize="0" altText="" r:id="rId26">
+        <oleObject progId="Equation.KSEE3" shapeId="2061" r:id="rId26">
+          <objectPr defaultSize="0" altText="" r:id="rId27">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4908,7 +4936,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2061" r:id="rId25"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2061" r:id="rId26"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -4917,9 +4945,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -4929,27 +4957,35 @@
     <col min="2" max="2" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="3073" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId5">
+        <oleObject progId="Equation.KSEE3" shapeId="3073" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId6">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4968,7 +5004,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="3073" r:id="rId4"/>
+        <oleObject progId="Equation.KSEE3" shapeId="3073" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/HypothesisTesting.xlsx
+++ b/HypothesisTesting.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="9330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="常见场景" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="112">
   <si>
     <t>检验对象</t>
   </si>
@@ -366,6 +366,26 @@
   </si>
   <si>
     <t>回到郭飞的博客</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到郭飞的博客</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到统计学目录</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到统计学目录</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到郭飞的博客</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到统计学目录</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -637,14 +657,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -655,12 +672,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -668,6 +679,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -679,10 +696,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3163,11 +3183,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3210,150 +3230,150 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="29"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="24" t="s">
         <v>25</v>
       </c>
       <c r="I11" t="s">
@@ -3361,16 +3381,16 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
       <c r="I12" t="s">
         <v>28</v>
       </c>
@@ -3388,16 +3408,16 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" t="s">
         <v>33</v>
       </c>
@@ -3409,57 +3429,57 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="29"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="31"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:13" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="32"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30" t="s">
+      <c r="E17" s="27"/>
+      <c r="F17" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="24" t="s">
         <v>42</v>
       </c>
       <c r="H17" s="9" t="s">
@@ -3467,24 +3487,24 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="27"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="12" t="s">
         <v>45</v>
       </c>
@@ -3493,7 +3513,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="7" t="s">
         <v>47</v>
       </c>
@@ -3511,95 +3531,95 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="14"/>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="25"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="29"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="26"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="27"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="28" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="23" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25" t="s">
+      <c r="E24" s="24"/>
+      <c r="F24" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="29"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="37"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="29"/>
+      <c r="H26" s="22"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="37"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
     </row>
     <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="9" t="s">
         <v>59</v>
       </c>
@@ -3613,7 +3633,7 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="15"/>
@@ -3623,10 +3643,10 @@
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="27" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -3645,8 +3665,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="9" t="s">
         <v>63</v>
       </c>
@@ -3663,8 +3683,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="9"/>
       <c r="D32" s="16" t="s">
         <v>70</v>
@@ -3679,8 +3699,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="9"/>
       <c r="D33" s="15" t="s">
         <v>73</v>
@@ -3693,7 +3713,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="23"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="7" t="s">
         <v>74</v>
       </c>
@@ -3709,76 +3729,76 @@
       <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="30" t="s">
         <v>76</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="28" t="s">
+      <c r="G35" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H35" s="29"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="36"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="29"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
-      <c r="B37" s="29"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="30" t="s">
         <v>78</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="28" t="s">
+      <c r="G37" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="H37" s="29"/>
+      <c r="H37" s="22"/>
     </row>
     <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="36"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="29"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="22"/>
     </row>
     <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="30" t="s">
         <v>80</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="28" t="s">
+      <c r="G39" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H39" s="29"/>
+      <c r="H39" s="22"/>
     </row>
     <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="36"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="29"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="22"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D42" s="20"/>
@@ -3813,61 +3833,17 @@
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="21" t="s">
-        <v>106</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D53" s="21" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="65">
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="A21:A29"/>
     <mergeCell ref="A30:A40"/>
@@ -3884,21 +3860,71 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H40"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F20" location="ANOVA2!A1" display="ANOVA2!A1"/>
-    <hyperlink ref="D52" r:id="rId1"/>
+    <hyperlink ref="D53" r:id="rId1"/>
+    <hyperlink ref="D52" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId4">
-          <objectPr defaultSize="0" altText="" r:id="rId5">
+        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId5">
+          <objectPr defaultSize="0" altText="" r:id="rId6">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -3917,13 +3943,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId4"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1026" r:id="rId6">
-          <objectPr defaultSize="0" altText="" r:id="rId7">
+        <oleObject progId="Equation.KSEE3" shapeId="1026" r:id="rId7">
+          <objectPr defaultSize="0" altText="" r:id="rId8">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -3942,13 +3968,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1026" r:id="rId6"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1026" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId8">
-          <objectPr defaultSize="0" altText="" r:id="rId9">
+        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId9">
+          <objectPr defaultSize="0" altText="" r:id="rId10">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -3967,13 +3993,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId8"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId10">
-          <objectPr defaultSize="0" altText="" r:id="rId11">
+        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId11">
+          <objectPr defaultSize="0" altText="" r:id="rId12">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -3992,13 +4018,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId10"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId12">
-          <objectPr defaultSize="0" altText="" r:id="rId13">
+        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId13">
+          <objectPr defaultSize="0" altText="" r:id="rId14">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4017,13 +4043,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId12"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1030" r:id="rId14">
-          <objectPr defaultSize="0" altText="" r:id="rId15">
+        <oleObject progId="Equation.KSEE3" shapeId="1030" r:id="rId15">
+          <objectPr defaultSize="0" altText="" r:id="rId16">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4042,13 +4068,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1030" r:id="rId14"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1030" r:id="rId15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId16">
-          <objectPr defaultSize="0" altText="" r:id="rId17">
+        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId17">
+          <objectPr defaultSize="0" altText="" r:id="rId18">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4067,13 +4093,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId16"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId18">
-          <objectPr defaultSize="0" altText="" r:id="rId19">
+        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId19">
+          <objectPr defaultSize="0" altText="" r:id="rId20">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4092,13 +4118,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId18"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId20">
-          <objectPr defaultSize="0" altText="" r:id="rId21">
+        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId21">
+          <objectPr defaultSize="0" altText="" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4117,13 +4143,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId20"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId22">
-          <objectPr defaultSize="0" altText="" r:id="rId23">
+        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId23">
+          <objectPr defaultSize="0" altText="" r:id="rId24">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4142,13 +4168,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId22"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId24">
-          <objectPr defaultSize="0" altText="" r:id="rId25">
+        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId25">
+          <objectPr defaultSize="0" altText="" r:id="rId26">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4167,13 +4193,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId24"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId26">
-          <objectPr defaultSize="0" altText="" r:id="rId27">
+        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId27">
+          <objectPr defaultSize="0" altText="" r:id="rId28">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4192,13 +4218,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId26"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId28">
-          <objectPr defaultSize="0" altText="" r:id="rId29">
+        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId29">
+          <objectPr defaultSize="0" altText="" r:id="rId30">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4217,13 +4243,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId28"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1038" r:id="rId30">
-          <objectPr defaultSize="0" altText="" r:id="rId31">
+        <oleObject progId="Equation.KSEE3" shapeId="1038" r:id="rId31">
+          <objectPr defaultSize="0" altText="" r:id="rId32">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4242,13 +4268,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1038" r:id="rId30"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1038" r:id="rId31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1040" r:id="rId32">
-          <objectPr defaultSize="0" altText="" r:id="rId33">
+        <oleObject progId="Equation.KSEE3" shapeId="1040" r:id="rId33">
+          <objectPr defaultSize="0" altText="" r:id="rId34">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4267,13 +4293,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1040" r:id="rId32"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1040" r:id="rId33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId34">
-          <objectPr defaultSize="0" altText="" r:id="rId35">
+        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId35">
+          <objectPr defaultSize="0" altText="" r:id="rId36">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4292,13 +4318,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId34"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId36">
-          <objectPr defaultSize="0" altText="" r:id="rId19">
+        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId37">
+          <objectPr defaultSize="0" altText="" r:id="rId20">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4317,13 +4343,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId36"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId37">
-          <objectPr defaultSize="0" altText="" r:id="rId21">
+        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId38">
+          <objectPr defaultSize="0" altText="" r:id="rId22">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4342,13 +4368,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId37"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1044" r:id="rId38">
-          <objectPr defaultSize="0" altText="" r:id="rId23">
+        <oleObject progId="Equation.KSEE3" shapeId="1044" r:id="rId39">
+          <objectPr defaultSize="0" altText="" r:id="rId24">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4367,13 +4393,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1044" r:id="rId38"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1044" r:id="rId39"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1046" r:id="rId39">
-          <objectPr defaultSize="0" altText="" r:id="rId40">
+        <oleObject progId="Equation.KSEE3" shapeId="1046" r:id="rId40">
+          <objectPr defaultSize="0" altText="" r:id="rId41">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4392,13 +4418,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1046" r:id="rId39"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1046" r:id="rId40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1047" r:id="rId41">
-          <objectPr defaultSize="0" altText="" r:id="rId42">
+        <oleObject progId="Equation.KSEE3" shapeId="1047" r:id="rId42">
+          <objectPr defaultSize="0" altText="" r:id="rId43">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4417,13 +4443,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1047" r:id="rId41"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1047" r:id="rId42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1048" r:id="rId43">
-          <objectPr defaultSize="0" altText="" r:id="rId44">
+        <oleObject progId="Equation.KSEE3" shapeId="1048" r:id="rId44">
+          <objectPr defaultSize="0" altText="" r:id="rId45">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4442,13 +4468,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1048" r:id="rId43"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1048" r:id="rId44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1049" r:id="rId45">
-          <objectPr defaultSize="0" altText="" r:id="rId46">
+        <oleObject progId="Equation.KSEE3" shapeId="1049" r:id="rId46">
+          <objectPr defaultSize="0" altText="" r:id="rId47">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4467,13 +4493,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1049" r:id="rId45"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1049" r:id="rId46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1050" r:id="rId47">
-          <objectPr defaultSize="0" altText="" r:id="rId48">
+        <oleObject progId="Equation.KSEE3" shapeId="1050" r:id="rId48">
+          <objectPr defaultSize="0" altText="" r:id="rId49">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4492,13 +4518,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1050" r:id="rId47"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1050" r:id="rId48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1052" r:id="rId49">
-          <objectPr defaultSize="0" altText="" r:id="rId50">
+        <oleObject progId="Equation.KSEE3" shapeId="1052" r:id="rId50">
+          <objectPr defaultSize="0" altText="" r:id="rId51">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4517,13 +4543,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1052" r:id="rId49"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1052" r:id="rId50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1053" r:id="rId51">
-          <objectPr defaultSize="0" r:id="rId52">
+        <oleObject progId="Equation.KSEE3" shapeId="1053" r:id="rId52">
+          <objectPr defaultSize="0" r:id="rId53">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4542,7 +4568,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1053" r:id="rId51"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1053" r:id="rId52"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -4551,10 +4577,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4630,19 +4656,25 @@
         <v>106</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId1"/>
+    <hyperlink ref="C10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId4">
-          <objectPr defaultSize="0" altText="" r:id="rId5">
+        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId5">
+          <objectPr defaultSize="0" altText="" r:id="rId6">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -4661,13 +4693,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId4"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId6">
-          <objectPr defaultSize="0" altText="" r:id="rId7">
+        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId7">
+          <objectPr defaultSize="0" altText="" r:id="rId8">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -4686,13 +4718,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId6"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId8">
-          <objectPr defaultSize="0" altText="" r:id="rId9">
+        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId9">
+          <objectPr defaultSize="0" altText="" r:id="rId10">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -4711,13 +4743,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId8"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId10">
-          <objectPr defaultSize="0" altText="" r:id="rId11">
+        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId11">
+          <objectPr defaultSize="0" altText="" r:id="rId12">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -4736,13 +4768,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId10"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId12">
-          <objectPr defaultSize="0" altText="" r:id="rId13">
+        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId13">
+          <objectPr defaultSize="0" altText="" r:id="rId14">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -4761,13 +4793,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId12"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId14">
-          <objectPr defaultSize="0" altText="" r:id="rId15">
+        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId15">
+          <objectPr defaultSize="0" altText="" r:id="rId16">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4786,13 +4818,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId14"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId16">
-          <objectPr defaultSize="0" altText="" r:id="rId17">
+        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId17">
+          <objectPr defaultSize="0" altText="" r:id="rId18">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4811,13 +4843,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId16"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId18">
-          <objectPr defaultSize="0" altText="" r:id="rId19">
+        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId19">
+          <objectPr defaultSize="0" altText="" r:id="rId20">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4836,13 +4868,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId18"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId20">
-          <objectPr defaultSize="0" altText="" r:id="rId21">
+        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId21">
+          <objectPr defaultSize="0" altText="" r:id="rId22">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4861,13 +4893,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId20"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId22">
-          <objectPr defaultSize="0" altText="" r:id="rId23">
+        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId23">
+          <objectPr defaultSize="0" altText="" r:id="rId24">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4886,13 +4918,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId22"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2060" r:id="rId24">
-          <objectPr defaultSize="0" altText="" r:id="rId25">
+        <oleObject progId="Equation.KSEE3" shapeId="2060" r:id="rId25">
+          <objectPr defaultSize="0" altText="" r:id="rId26">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4911,13 +4943,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2060" r:id="rId24"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2060" r:id="rId25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2061" r:id="rId26">
-          <objectPr defaultSize="0" altText="" r:id="rId27">
+        <oleObject progId="Equation.KSEE3" shapeId="2061" r:id="rId27">
+          <objectPr defaultSize="0" altText="" r:id="rId28">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4936,7 +4968,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2061" r:id="rId26"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2061" r:id="rId27"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -4945,10 +4977,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4969,23 +5001,29 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="3073" r:id="rId5">
-          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId6">
+        <oleObject progId="Equation.KSEE3" shapeId="3073" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -5004,7 +5042,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="3073" r:id="rId5"/>
+        <oleObject progId="Equation.KSEE3" shapeId="3073" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/HypothesisTesting.xlsx
+++ b/HypothesisTesting.xlsx
@@ -657,11 +657,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -672,6 +675,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -679,12 +688,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -696,13 +699,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1090,7 +1090,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>723900</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:rowOff>152399</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1213,16 +1213,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1031037</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>7327</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1200150</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>30011</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>505558</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3186,8 +3186,8 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3230,150 +3230,150 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="22"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="22"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="25" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="25" t="s">
         <v>25</v>
       </c>
       <c r="I11" t="s">
@@ -3381,16 +3381,16 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
       <c r="I12" t="s">
         <v>28</v>
       </c>
@@ -3408,16 +3408,16 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
       <c r="I13" t="s">
         <v>33</v>
       </c>
@@ -3429,57 +3429,57 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="28" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="22"/>
+      <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="28"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:13" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="29"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27" t="s">
+      <c r="E17" s="30"/>
+      <c r="F17" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="25" t="s">
         <v>42</v>
       </c>
       <c r="H17" s="9" t="s">
@@ -3487,24 +3487,24 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="26"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+    <row r="19" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="12" t="s">
         <v>45</v>
       </c>
@@ -3513,7 +3513,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="7" t="s">
         <v>47</v>
       </c>
@@ -3531,95 +3531,95 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="28" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="14"/>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="24"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="29"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="25"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="22"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="26"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="22"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="28" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24" t="s">
+      <c r="E24" s="25"/>
+      <c r="F24" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="22"/>
+      <c r="H24" s="29"/>
     </row>
     <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="22"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="31"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="22"/>
+      <c r="H26" s="29"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="31"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="9" t="s">
         <v>59</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="15"/>
@@ -3643,10 +3643,10 @@
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="30" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -3665,8 +3665,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="9" t="s">
         <v>63</v>
       </c>
@@ -3683,8 +3683,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="9"/>
       <c r="D32" s="16" t="s">
         <v>70</v>
@@ -3699,8 +3699,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="9"/>
       <c r="D33" s="15" t="s">
         <v>73</v>
@@ -3713,7 +3713,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="7" t="s">
         <v>74</v>
       </c>
@@ -3729,76 +3729,76 @@
       <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="36" t="s">
         <v>76</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="H35" s="22"/>
+      <c r="H35" s="29"/>
     </row>
     <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="36"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="30"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="22"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="29"/>
     </row>
     <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="36" t="s">
         <v>78</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="H37" s="22"/>
+      <c r="H37" s="29"/>
     </row>
     <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="36"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="30"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="22"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="29"/>
     </row>
     <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
-      <c r="B39" s="22"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="36" t="s">
         <v>80</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="23" t="s">
+      <c r="G39" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="H39" s="22"/>
+      <c r="H39" s="29"/>
     </row>
     <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="37"/>
-      <c r="B40" s="22"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="30"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="22"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="29"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D42" s="20"/>
@@ -3844,6 +3844,55 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="65">
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="A21:A29"/>
     <mergeCell ref="A30:A40"/>
@@ -3860,55 +3909,6 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H39:H40"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
@@ -3917,14 +3917,14 @@
     <hyperlink ref="D52" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId5">
-          <objectPr defaultSize="0" altText="" r:id="rId6">
+        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId6">
+          <objectPr defaultSize="0" altText="" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -3943,13 +3943,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId5"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1026" r:id="rId7">
-          <objectPr defaultSize="0" altText="" r:id="rId8">
+        <oleObject progId="Equation.KSEE3" shapeId="1026" r:id="rId8">
+          <objectPr defaultSize="0" altText="" r:id="rId9">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -3968,13 +3968,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1026" r:id="rId7"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1026" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId9">
-          <objectPr defaultSize="0" altText="" r:id="rId10">
+        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId10">
+          <objectPr defaultSize="0" altText="" r:id="rId11">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -3993,13 +3993,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId9"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId11">
-          <objectPr defaultSize="0" altText="" r:id="rId12">
+        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId12">
+          <objectPr defaultSize="0" altText="" r:id="rId13">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4018,13 +4018,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId11"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId13">
-          <objectPr defaultSize="0" altText="" r:id="rId14">
+        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId14">
+          <objectPr defaultSize="0" altText="" r:id="rId15">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4043,13 +4043,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId13"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1030" r:id="rId15">
-          <objectPr defaultSize="0" altText="" r:id="rId16">
+        <oleObject progId="Equation.KSEE3" shapeId="1030" r:id="rId16">
+          <objectPr defaultSize="0" altText="" r:id="rId17">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4068,13 +4068,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1030" r:id="rId15"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1030" r:id="rId16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId17">
-          <objectPr defaultSize="0" altText="" r:id="rId18">
+        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId18">
+          <objectPr defaultSize="0" altText="" r:id="rId19">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4093,13 +4093,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId17"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId19">
-          <objectPr defaultSize="0" altText="" r:id="rId20">
+        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId20">
+          <objectPr defaultSize="0" altText="" r:id="rId21">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4118,13 +4118,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId19"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId21">
-          <objectPr defaultSize="0" altText="" r:id="rId22">
+        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId22">
+          <objectPr defaultSize="0" altText="" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4143,13 +4143,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId21"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId23">
-          <objectPr defaultSize="0" altText="" r:id="rId24">
+        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId24">
+          <objectPr defaultSize="0" altText="" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4168,13 +4168,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId23"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId25">
-          <objectPr defaultSize="0" altText="" r:id="rId26">
+        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId26">
+          <objectPr defaultSize="0" altText="" r:id="rId27">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4193,38 +4193,38 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId25"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId27">
-          <objectPr defaultSize="0" altText="" r:id="rId28">
+        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId28">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId29">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1028700</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1200150</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>18</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:rowOff>504825</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId27"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId29">
-          <objectPr defaultSize="0" altText="" r:id="rId30">
+        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId30">
+          <objectPr defaultSize="0" altText="" r:id="rId31">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4243,13 +4243,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId29"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1038" r:id="rId31">
-          <objectPr defaultSize="0" altText="" r:id="rId32">
+        <oleObject progId="Equation.KSEE3" shapeId="1038" r:id="rId32">
+          <objectPr defaultSize="0" altText="" r:id="rId33">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4268,13 +4268,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1038" r:id="rId31"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1038" r:id="rId32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1040" r:id="rId33">
-          <objectPr defaultSize="0" altText="" r:id="rId34">
+        <oleObject progId="Equation.KSEE3" shapeId="1040" r:id="rId34">
+          <objectPr defaultSize="0" altText="" r:id="rId35">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4293,13 +4293,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1040" r:id="rId33"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1040" r:id="rId34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId35">
-          <objectPr defaultSize="0" altText="" r:id="rId36">
+        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId36">
+          <objectPr defaultSize="0" altText="" r:id="rId37">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4318,13 +4318,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId35"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId37">
-          <objectPr defaultSize="0" altText="" r:id="rId20">
+        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId38">
+          <objectPr defaultSize="0" altText="" r:id="rId21">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4343,13 +4343,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId37"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId38">
-          <objectPr defaultSize="0" altText="" r:id="rId22">
+        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId39">
+          <objectPr defaultSize="0" altText="" r:id="rId23">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4368,13 +4368,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId38"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId39"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1044" r:id="rId39">
-          <objectPr defaultSize="0" altText="" r:id="rId24">
+        <oleObject progId="Equation.KSEE3" shapeId="1044" r:id="rId40">
+          <objectPr defaultSize="0" altText="" r:id="rId25">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4393,13 +4393,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1044" r:id="rId39"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1044" r:id="rId40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1046" r:id="rId40">
-          <objectPr defaultSize="0" altText="" r:id="rId41">
+        <oleObject progId="Equation.KSEE3" shapeId="1046" r:id="rId41">
+          <objectPr defaultSize="0" altText="" r:id="rId42">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4418,13 +4418,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1046" r:id="rId40"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1046" r:id="rId41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1047" r:id="rId42">
-          <objectPr defaultSize="0" altText="" r:id="rId43">
+        <oleObject progId="Equation.KSEE3" shapeId="1047" r:id="rId43">
+          <objectPr defaultSize="0" altText="" r:id="rId44">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4443,13 +4443,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1047" r:id="rId42"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1047" r:id="rId43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1048" r:id="rId44">
-          <objectPr defaultSize="0" altText="" r:id="rId45">
+        <oleObject progId="Equation.KSEE3" shapeId="1048" r:id="rId45">
+          <objectPr defaultSize="0" altText="" r:id="rId46">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4468,13 +4468,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1048" r:id="rId44"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1048" r:id="rId45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1049" r:id="rId46">
-          <objectPr defaultSize="0" altText="" r:id="rId47">
+        <oleObject progId="Equation.KSEE3" shapeId="1049" r:id="rId47">
+          <objectPr defaultSize="0" altText="" r:id="rId48">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4493,13 +4493,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1049" r:id="rId46"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1049" r:id="rId47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1050" r:id="rId48">
-          <objectPr defaultSize="0" altText="" r:id="rId49">
+        <oleObject progId="Equation.KSEE3" shapeId="1050" r:id="rId49">
+          <objectPr defaultSize="0" altText="" r:id="rId50">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4518,13 +4518,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1050" r:id="rId48"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1050" r:id="rId49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1052" r:id="rId50">
-          <objectPr defaultSize="0" altText="" r:id="rId51">
+        <oleObject progId="Equation.KSEE3" shapeId="1052" r:id="rId51">
+          <objectPr defaultSize="0" altText="" r:id="rId52">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -4543,13 +4543,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1052" r:id="rId50"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1052" r:id="rId51"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1053" r:id="rId52">
-          <objectPr defaultSize="0" r:id="rId53">
+        <oleObject progId="Equation.KSEE3" shapeId="1053" r:id="rId53">
+          <objectPr defaultSize="0" r:id="rId54">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4568,7 +4568,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1053" r:id="rId52"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1053" r:id="rId53"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
